--- a/inputfiles/Pine8th_BC.xlsx
+++ b/inputfiles/Pine8th_BC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SubsurfaceSinks\inputfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11BE249-770B-465A-9639-9599F42CDC97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AB9599-7460-437B-B38F-97A59192E9F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
